--- a/spring7/document/API 명세서.xlsx
+++ b/spring7/document/API 명세서.xlsx
@@ -19,11 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+  <x:si>
+    <x:t>3-5. 게시글 조회(1개)</x:t>
+  </x:si>
   <x:si>
     <x:t>보류</x:t>
   </x:si>
   <x:si>
+    <x:t>댓글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-8. 게시글 삭제</x:t>
+  </x:si>
+  <x:si>
     <x:t>2-6. 개인정보 수정</x:t>
   </x:si>
   <x:si>
@@ -42,9 +54,18 @@
     <x:t>UserController</x:t>
   </x:si>
   <x:si>
+    <x:t>/board/boardWrite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/boardDelete</x:t>
+  </x:si>
+  <x:si>
     <x:t>POST</x:t>
   </x:si>
   <x:si>
+    <x:t>3-2. 게시글 쓰기화면 요청</x:t>
+  </x:si>
+  <x:si>
     <x:t>SecurityConfig</x:t>
   </x:si>
   <x:si>
@@ -78,6 +99,9 @@
     <x:t>2. 회원</x:t>
   </x:si>
   <x:si>
+    <x:t>3-4. 첨부파일 다운로드</x:t>
+  </x:si>
+  <x:si>
     <x:t>4. 댓글</x:t>
   </x:si>
   <x:si>
@@ -93,6 +117,9 @@
     <x:t>Controller</x:t>
   </x:si>
   <x:si>
+    <x:t>/user/**</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 첫 화면</x:t>
   </x:si>
   <x:si>
@@ -114,29 +141,83 @@
     <x:t>/user/logout</x:t>
   </x:si>
   <x:si>
+    <x:t>댓글 목록</x:t>
+  </x:si>
+  <x:si>
     <x:t>/user/duplicate</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">      페이징 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-7. 게시글 수정 처리</x:t>
+  </x:si>
+  <x:si>
     <x:t>2-4. 로그인 처리요청</x:t>
   </x:si>
   <x:si>
+    <x:t>3-6. 게시글 수정 화면</x:t>
+  </x:si>
+  <x:si>
     <x:t>/user/loginProc</x:t>
   </x:si>
   <x:si>
     <x:t>2-5. 로그아웃</x:t>
   </x:si>
   <x:si>
+    <x:t>댓글 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/**</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">      첨부파일 업로드</x:t>
+  </x:si>
+  <x:si>
     <x:t>/user/login</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">      검색기능</x:t>
+  </x:si>
+  <x:si>
     <x:t>2-3. 로그인 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-3. 게시글 쓰기 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reply/replyList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reply/replyWrite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reply/**</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ajax로 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReplyController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/boardUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/boardDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reply/replyUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reply/replyDelete</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="6">
+  <x:fonts count="8">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -167,6 +248,16 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="15"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="14"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -176,7 +267,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -191,20 +282,63 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -871,239 +1005,540 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B3:G23"/>
+  <x:dimension ref="B3:H34"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F18" activeCellId="0" sqref="F18:F18"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="2" max="2" width="10.52734375" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="20.5" customWidth="1"/>
+    <x:col min="2" max="2" width="13.1015625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.19921875" customWidth="1"/>
     <x:col min="4" max="4" width="17.6015625" customWidth="1"/>
     <x:col min="6" max="6" width="17.19921875" customWidth="1"/>
     <x:col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <x:col min="8" max="8" width="11.8984375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="3" spans="2:2">
-      <x:c r="B3" t="s">
+    <x:row r="3" spans="2:2" ht="22.050000000000001">
+      <x:c r="B3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:2" ht="20.649999999999999">
+      <x:c r="B4" s="2">
+        <x:v>45652</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:8">
+      <x:c r="B5" s="3"/>
+      <x:c r="C5" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E5" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F5" s="4" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H5" s="3"/>
+    </x:row>
+    <x:row r="6" spans="2:8">
+      <x:c r="B6" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="3"/>
+      <x:c r="D6" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="2:8">
+      <x:c r="B7" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="2:8">
+      <x:c r="B8" s="3"/>
+      <x:c r="C8" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="2:8">
+      <x:c r="B9" s="3"/>
+      <x:c r="C9" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D9" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3"/>
+    </x:row>
+    <x:row r="10" spans="2:8">
+      <x:c r="B10" s="3"/>
+      <x:c r="C10" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E10" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F10" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3"/>
+    </x:row>
+    <x:row r="11" spans="2:8">
+      <x:c r="B11" s="3"/>
+      <x:c r="C11" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D11" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E11" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F11" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3"/>
+    </x:row>
+    <x:row r="12" spans="2:8">
+      <x:c r="B12" s="3"/>
+      <x:c r="C12" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D12" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E12" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F12" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3"/>
+    </x:row>
+    <x:row r="13" spans="2:8">
+      <x:c r="B13" s="3"/>
+      <x:c r="C13" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E13" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F13" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G13" s="3"/>
+      <x:c r="H13" s="3"/>
+    </x:row>
+    <x:row r="14" spans="2:8">
+      <x:c r="B14" s="3"/>
+      <x:c r="C14" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E14" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F14" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G14" s="3"/>
+      <x:c r="H14" s="3"/>
+    </x:row>
+    <x:row r="15" spans="2:8">
+      <x:c r="B15" s="3"/>
+      <x:c r="C15" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E15" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F15" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G15" s="3"/>
+      <x:c r="H15" s="3"/>
+    </x:row>
+    <x:row r="16" spans="2:8">
+      <x:c r="B16" s="3"/>
+      <x:c r="C16" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E16" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F16" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G16" s="3"/>
+      <x:c r="H16" s="3"/>
+    </x:row>
+    <x:row r="17" spans="2:8">
+      <x:c r="B17" s="3"/>
+      <x:c r="C17" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E17" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F17" s="3"/>
+      <x:c r="G17" s="3"/>
+      <x:c r="H17" s="3"/>
+    </x:row>
+    <x:row r="18" spans="2:8">
+      <x:c r="B18" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E18" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F18" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G18" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H18" s="3"/>
+    </x:row>
+    <x:row r="19" spans="2:8">
+      <x:c r="B19" s="3"/>
+      <x:c r="C19" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D19" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E19" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F19" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G19" s="3"/>
+      <x:c r="H19" s="3"/>
+    </x:row>
+    <x:row r="20" spans="2:8">
+      <x:c r="B20" s="3"/>
+      <x:c r="C20" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D20" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E20" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F20" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G20" s="3"/>
+      <x:c r="H20" s="3"/>
+    </x:row>
+    <x:row r="21" spans="2:8">
+      <x:c r="B21" s="3"/>
+      <x:c r="C21" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="2:2">
-      <x:c r="B4" s="1">
-        <x:v>45652</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="3:7">
-      <x:c r="C5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G5" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:7">
-      <x:c r="B6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" t="s">
+      <x:c r="D21" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E21" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F21" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G21" s="3"/>
+      <x:c r="H21" s="3"/>
+    </x:row>
+    <x:row r="22" spans="2:8">
+      <x:c r="B22" s="3"/>
+      <x:c r="C22" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D22" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E22" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E6" t="s">
+      <x:c r="F22" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G22" s="3"/>
+      <x:c r="H22" s="3"/>
+    </x:row>
+    <x:row r="23" spans="2:8">
+      <x:c r="B23" s="3"/>
+      <x:c r="C23" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D23" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E23" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F23" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G23" s="3"/>
+      <x:c r="H23" s="3"/>
+    </x:row>
+    <x:row r="24" spans="2:8">
+      <x:c r="B24" s="3"/>
+      <x:c r="C24" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D24" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E24" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F24" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G24" s="3"/>
+      <x:c r="H24" s="3"/>
+    </x:row>
+    <x:row r="25" spans="2:8">
+      <x:c r="B25" s="3"/>
+      <x:c r="C25" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D25" s="5" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E25" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F25" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G25" s="3"/>
+      <x:c r="H25" s="3"/>
+    </x:row>
+    <x:row r="26" spans="2:8">
+      <x:c r="B26" s="3"/>
+      <x:c r="C26" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D26" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E26" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F26" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G26" s="3"/>
+      <x:c r="H26" s="3"/>
+    </x:row>
+    <x:row r="27" spans="2:8">
+      <x:c r="B27" s="3"/>
+      <x:c r="C27" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D27" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E27" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F27" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G27" s="3"/>
+      <x:c r="H27" s="3"/>
+    </x:row>
+    <x:row r="28" spans="2:8">
+      <x:c r="B28" s="3"/>
+      <x:c r="C28" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D28" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G6" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:6">
-      <x:c r="B7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="3:6">
-      <x:c r="C8" t="s">
+      <x:c r="E28" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F28" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G28" s="3"/>
+      <x:c r="H28" s="3"/>
+    </x:row>
+    <x:row r="29" spans="2:8">
+      <x:c r="B29" s="3"/>
+      <x:c r="C29" s="3"/>
+      <x:c r="D29" s="3"/>
+      <x:c r="E29" s="4"/>
+      <x:c r="F29" s="3"/>
+      <x:c r="G29" s="3"/>
+      <x:c r="H29" s="3"/>
+    </x:row>
+    <x:row r="30" spans="2:8">
+      <x:c r="B30" s="3"/>
+      <x:c r="C30" s="3"/>
+      <x:c r="D30" s="3"/>
+      <x:c r="E30" s="4"/>
+      <x:c r="F30" s="3"/>
+      <x:c r="G30" s="3"/>
+      <x:c r="H30" s="3"/>
+    </x:row>
+    <x:row r="31" spans="2:8">
+      <x:c r="B31" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D31" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E31" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F31" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G31" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H31" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:8">
+      <x:c r="B32" s="3"/>
+      <x:c r="C32" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D32" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E32" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F32" s="3"/>
+      <x:c r="G32" s="3"/>
+      <x:c r="H32" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="2:8">
+      <x:c r="B33" s="3"/>
+      <x:c r="C33" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D33" s="5" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E33" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F33" s="3"/>
+      <x:c r="G33" s="3"/>
+      <x:c r="H33" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:8">
+      <x:c r="B34" s="3"/>
+      <x:c r="C34" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="3:6">
-      <x:c r="C9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="3:6">
-      <x:c r="C10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E10" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="3:6">
-      <x:c r="C11" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="3:6">
-      <x:c r="C12" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="3:6">
-      <x:c r="C13" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F13" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="3:6">
-      <x:c r="C14" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D14" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F14" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="3:6">
-      <x:c r="C15" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="3:6">
-      <x:c r="C16" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D16" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F16" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="3:5">
-      <x:c r="C17" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E17" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:6">
-      <x:c r="B18" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C18" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:2">
-      <x:c r="B23" t="s">
-        <x:v>19</x:v>
+      <x:c r="D34" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E34" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F34" s="3"/>
+      <x:c r="G34" s="3"/>
+      <x:c r="H34" s="3" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
